--- a/api/src/db/seeds/user_seeds.xlsx
+++ b/api/src/db/seeds/user_seeds.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\ovangle\dev\cqu-site\api\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\ovangle\dev\cqu-site\api\src\db\seeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3731E7B9-128F-4F82-A9AF-FA6E8735BF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89D583E-D3A0-47A1-8FA6-8038BB1E4B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8265" yWindow="3165" windowWidth="19185" windowHeight="10200" xr2:uid="{64940873-FD00-43BC-B26B-3F1D0CEBA071}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{64940873-FD00-43BC-B26B-3F1D0CEBA071}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -162,9 +159,6 @@
     <t>m.azimiadehmortezapasha@cqu.edu.au</t>
   </si>
   <si>
-    <t>Lab Supervisor/Instructor-702622  </t>
-  </si>
-  <si>
     <t>Omer Bener</t>
   </si>
   <si>
@@ -175,6 +169,9 @@
   </si>
   <si>
     <t>Gladstone (GLAD)  </t>
+  </si>
+  <si>
+    <t>Lab Supervisor/Instructor</t>
   </si>
 </sst>
 </file>
@@ -544,18 +541,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AD02A9-5FCF-4619-821B-DFF84F7158C2}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -589,7 +586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -606,7 +603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -623,7 +620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -640,7 +637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -657,7 +654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -674,7 +671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -691,7 +688,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
@@ -708,7 +705,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -725,7 +722,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -742,7 +739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -750,7 +747,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
@@ -759,18 +756,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>17</v>
